--- a/playground/m00/doc/testControl.xlsx
+++ b/playground/m00/doc/testControl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE4775-6A84-4019-8166-956112A68CFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAB067E-6A92-48B9-9782-3B4D8FA427A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="6" r:id="rId2"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
-    <sheet name="help" sheetId="4" r:id="rId4"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
-    <sheet name="template-source" sheetId="2" r:id="rId6"/>
+    <sheet name="help" sheetId="9" r:id="rId12"/>
+    <sheet name="setting.ini" sheetId="8" r:id="rId11"/>
+    <sheet name="template-statefunc" sheetId="7" r:id="rId10"/>
+    <sheet name="template-source" sheetId="6" r:id="rId9"/>
+    <sheet name="config" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,363 +26,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>state-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nextstate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="2"/>
+  </si>
   <si>
     <t>thumbnail</t>
   </si>
   <si>
+    <t>S_START</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S_END</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nowait</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>post_wait</t>
   </si>
   <si>
-    <t xml:space="preserve">/*_x000D_
-    [[state]]_x000D_
-    [[state-cmt]]_x000D_
-*/_x000D_
-[[state]](bFirst: boolean) {_x000D_
-_x000D_
-    if (bFirst) {_x000D_
-        _x000D_
-        this.curstatename = '[[state]]';_x000D_
-        // this.curstatecmt  = '[[state-cmt]]';_x000D_
-_x000D_
-        [[init]]_x000D_
-    }_x000D_
-_x000D_
-    [[update]]_x000D_
-_x000D_
-    &lt;&lt;&lt;?wait_x000D_
-    if (![[wait]]) { return; }_x000D_
-    &gt;&gt;&gt;_x000D_
-_x000D_
-    [[post_wait]]_x000D_
-_x000D_
-    [[branch]]_x000D_
-_x000D_
-    &lt;&lt;&lt;?nextstate_x000D_
-    if (!this.HasNextState()) {_x000D_
-        this.SetNext(this.[[nextstate]]);_x000D_
-    }_x000D_
-    &gt;&gt;&gt;_x000D_
-    _x000D_
-    &lt;&lt;&lt;?nowait_x000D_
-    this.NoWait();_x000D_
-    &gt;&gt;&gt;_x000D_
-_x000D_
-    if (this.HasNextState()) {_x000D_
-        this.GoNext();_x000D_
-    }_x000D_
-}_x000D_
+    <t>post_wait-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>init-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wait-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>!dir</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>!uuid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>state-ref</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>init-ref</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Write name of state</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Write comment of state</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Write refference</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>!pos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+[[state]](bFirst: boolean) {
+    if (bFirst) {
+        this.curstatename = '[[state]]';
+        // this.curstatecmt  = '[[state-cmt]]';
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) { return; }
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate
+    if (!this.HasNextState()) {
+        this.SetNext(this.[[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    &lt;&lt;&lt;?nowait
+    this.NoWait();
+    &gt;&gt;&gt;
+    if (this.HasNextState()) {
+        this.GoNext();
+    }
+}
 </t>
   </si>
   <si>
-    <t>; -----_x000D_
-; 項目説明_x000D_
-; -----_x000D_
-_x000D_
-[state]_x000D_
-jpn=@@@_x000D_
-ステート名を指定する。_x000D_
-英文字、数字、アンダーバーで構成される。_x000D_
-先頭は英文字およびアンダーバー。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a state name._x000D_
-The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar._x000D_
-@@@_x000D_
-_x000D_
-[thumbnail]_x000D_
-jpn=@@@_x000D_
-説明用のイメージを指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a image for explanation of this state._x000D_
-@@@_x000D_
-_x000D_
-[init]_x000D_
-jpn=@@@_x000D_
-初期化用処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a initial process._x000D_
-@@@_x000D_
-_x000D_
-[update]_x000D_
-jpn=@@@_x000D_
-更新処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a update process._x000D_
-@@@_x000D_
-_x000D_
-[wait]_x000D_
-jpn=@@@_x000D_
-待ち条件を指定する。_x000D_
-true時にループを解除する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify a waiting condition._x000D_
-Release the loop if the condition is true._x000D_
-@@@_x000D_
-_x000D_
-[post_wait]_x000D_
-jpn=@@@_x000D_
-'wait'後の処理を指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify the post process after 'wait'._x000D_
-@@@_x000D_
-_x000D_
-[branch]_x000D_
-jpn=@@@_x000D_
-分岐処理を指定する。_x000D_
-１行に一つの分岐命令を書く。_x000D_
-GUIにより上書きされるため引数は適当に指定する。_x000D_
-例）_x000D_
-br_YES(?);_x000D_
-br_NO(?);_x000D_
-br_UNKNOWN(?);_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify branch functions._x000D_
-Each line has a branch function._x000D_
-Specify a tentavie parameter for each branch function because GUI overwrites the parameter._x000D_
-i.e)_x000D_
-br_YES(?);_x000D_
-br_NO(?);_x000D_
-br_UNKNOWN(?);_x000D_
-@@@_x000D_
-_x000D_
-[nextstate]_x000D_
-jpn=@@@_x000D_
-次に実行するステートを指定する。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify the next state to be executed._x000D_
-@@@_x000D_
-_x000D_
-[nowait]_x000D_
-jpn=@@@_x000D_
-次のステートへ同期待ちをせず実行する時に 'yes'を指定する。_x000D_
-同期待ち時には何も指定しない。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-Specify 'yes' if the next state will be execute without a sync wait._x000D_
-Do not specify any word wheh the next state will be execute with a sync wait._x000D_
-@@@_x000D_
-_x000D_
-[!dir]_x000D_
-jpn=@@@_x000D_
-システムがステートのディレクトリ指定に使用。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-System uses this for the directory path of the state._x000D_
-@@@_x000D_
-_x000D_
-[!uuid]_x000D_
-jpn=@@@_x000D_
-システムがステートのuuid指定に使用。_x000D_
-@@@_x000D_
-en=@@@_x000D_
-System uses this for the uuid of the state._x000D_
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
 @@@</t>
   </si>
   <si>
-    <t xml:space="preserve">[setting]_x000D_
-_x000D_
-psgg=testControl.psgg_x000D_
-xls=testControl.xlsx_x000D_
-sub_src=testControlSub.ts_x000D_
-gen_src=testControl.ts_x000D_
-_x000D_
-manager_src=state-manager.ts_x000D_
-manager_dir=base_x000D_
-_x000D_
-template_src=template-source.txt_x000D_
-template_func=template-statefunc.txt_x000D_
-_x000D_
-help=help.ini_x000D_
-helpweb=helpweb.html_x000D_
-_x000D_
-[setupinfo]_x000D_
-_x000D_
-; converter=user.dll_x000D_
-_x000D_
-lang=typescript_x000D_
-framework=angular_x000D_
-_x000D_
-prefix=test_x000D_
-xlsdir=C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\doc_x000D_
-gendir=C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\my-app\src\app\statesrc_x000D_
-genrdir=..\my-app\src\app\statesrc_x000D_
-incrdir=._x000D_
-_x000D_
-[macro]_x000D_
-; This section has macro defines for converting._x000D_
-_x000D_
-; commentline format  {%0} will be replaced to a comment._x000D_
-commentline=// {%0}_x000D_
-_x000D_
-@branch=this.{%0}(this.{%1});_x000D_
-_x000D_
-[jpn]_x000D_
-title=Angular typescript サンプル１ by NNNIC 2017.8.11_x000D_
-_x000D_
-detail=@@@_x000D_
-_x000D_
-Angular typescript用のステートマシンを作成します。_x000D_
-_x000D_
-# ドキュメント用フォルダ_x000D_
-   ステート図ファイルとEditor起動用ショートカットを格納_x000D_
-_x000D_
-      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\doc_x000D_
-_x000D_
-  以下のファイルを作成します。_x000D_
-_x000D_
-      testControl.pssg     --- PSSG Editorで次のエクセルファイルを開く。_x000D_
-      testControl.xlsx     ---  ステート図格納用Excelファイル。PSSG Editorが編集。_x000D_
-_x000D_
-# ソース用フォルダ　_x000D_
-　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納_x000D_
-_x000D_
-      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\my-app\src\app\statesrc_x000D_
-_x000D_
-　以下のファイルを作成します。_x000D_
-_x000D_
-      testControl.ts       --- Excelファイルからの変換ソースコード。PSSG Editorの変換プロセスの度に上書きされる。_x000D_
-                                        ※生成直後は関数なしのクラス定義のみ_x000D_
-_x000D_
-      testControlSub.ts    --- ユーザ実装用　（ここにプログラムを書く！）_x000D_
-                                        ※生成直後は関数なしのクラス定義のみ_x000D_
-_x000D_
-# 共通管理クラスファイル_x000D_
-_x000D_
-  以下のファイルを作成します。_x000D_
-_x000D_
-      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\my-app\src\app\statesrc/base/StateManager.ts_x000D_
-_x000D_
-注意 : 既に同名のファイルがある場合は生成されません。_x000D_
-　　　 削除してから生成してください。_x000D_
- _x000D_
-@@@_x000D_
-_x000D_
-[en]_x000D_
-title=Angular typescript sample 1  by NNNIC 2017.8.11_x000D_
-_x000D_
-detail=@@@_x000D_
-This dialog will create files for a state machine._x000D_
-_x000D_
-# Document Folder _x000D_
-      This folder will contain a state chart file and the shortcut of the editor._x000D_
-_x000D_
-      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\doc_x000D_
-_x000D_
-  File:_x000D_
-_x000D_
-      testControl.pssg  --- PSSG Editor opens the below excel file._x000D_
-      testControl.xlsx  --- Excel File. PSSG Editor edits this file_x000D_
-_x000D_
-# Source Folder _x000D_
-       This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file._x000D_
-_x000D_
-      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\my-app\src\app\statesrc_x000D_
-_x000D_
-　File:_x000D_
-_x000D_
-      testControl.ts       -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor._x000D_
-                                    * The file has only a class define without methods immediately after this creation._x000D_
-_x000D_
-      testControlSub.ts   -- For implementation. (You have to write program in this file!!)_x000D_
-                                    * The file has only class define without methods immediately after this creation._x000D_
-_x000D_
-# Common State Manager Class File_x000D_
-_x000D_
-      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\m00\my-app\src\app\statesrc/base/StateManager.ts _x000D_
-_x000D_
-NOTE : If the same name files exists, the file will not be created._x000D_
-       Please delete the same name files ahead of the creation._x000D_
-　_x000D_
-@@@_x000D_
+    <t>[setting]
+psgg=testControl.psgg
+xls=testControl.xlsx
+sub_src=
+gen_src=testControl.ts
+manager_src=state-manager.ts
+manager_dir=base
+template_src=
+template_func=template-statefunc.txt
+help=help.ini
+helpweb=helpweb.html
+[setupinfo]
+; converter=user.dll
+lang=typescript
+framework=angular
+prefix=__PREFIX__
+xlsdir=C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\doc
+gendir=C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\my-app\src\app\statesrc
+genrdir=..\my-app\src\app\statesrc
+incrdir=.
+code_output_start=[SYN-G-GEN OUTPUT START]
+code_output_end=[SYN-G-GEN OUTPUT END]
+[macro]
+; This section has macro defines for converting.
+; commentline format  {%0} will be replaced to a comment.
+commentline=// {%0}
+@branch=this.{%0}(this.{%1});
+[jpn]
+title=Angular typescript  スタートキット  2018/10/6
+detail=@@@
+Angular typescript用のステートマシンを作成します。
+※サンプルプロジェクトを次のＵＲＬより入手可能。
+https://github.com/NNNIC/psgg-angular-sample
+# ドキュメント用フォルダ
+   ステート図ファイルとエディタ起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\doc
+  以下のファイルを作成します。
+      testControl.pssg     --- エディタで次のエクセルファイルを開く。
+      testControl.xlsx     ---  ステート図格納用Excelファイル。エディタが編集。
+# ソース用フォルダ　
+　エディタが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\my-app\src\app\statesrc
+　以下のファイルを作成します。
+      testControl.ts       --- Excelファイルからの変換結果を挿入。
+# 共通管理クラスファイル
+  以下のファイルを作成します。
+      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\my-app\src\app\statesrc/base/StateManager.ts
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+@@@
+[en]
+title=Angular typescript STARTER KIT 2018/10/6
+detail=@@@
+This dialog will create files for a state machine.
+* You may get the sample project from the below url.
+https://github.com/NNNIC/psgg-angular-sample
+# Document Folder 
+      This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\doc
+  File:
+      testControl.pssg  --- The editor opens the below excel file.
+      testControl.xlsx  --- Excel File. The editor edits this file
+# Source Folder 
+       This folder will contain a source file generated by the editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\my-app\src\app\statesrc
+　File:
+      testControl.ts       -- The editor will convert from the excel file into this file. 
+# Common State Manager Class File
+      C:\Users\gea01\Documents\psgg\samples\psgg-angular-sample\playground\m00\my-app\src\app\statesrc/base/StateManager.ts 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+@@@
 </t>
   </si>
   <si>
-    <t>(bitmap)</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>Write name of state</t>
-  </si>
-  <si>
-    <t>S_START</t>
-  </si>
-  <si>
-    <t>S_END</t>
-  </si>
-  <si>
-    <t>S_HELLO</t>
-  </si>
-  <si>
-    <t>state-cmt</t>
-  </si>
-  <si>
-    <t>Write comment of state</t>
-  </si>
-  <si>
-    <t>say hello!</t>
-  </si>
-  <si>
-    <t>state-ref</t>
-  </si>
-  <si>
-    <t>Write refference</t>
-  </si>
-  <si>
-    <t>nextstate</t>
-  </si>
-  <si>
-    <t>init</t>
-  </si>
-  <si>
-    <t>init-cmt</t>
-  </si>
-  <si>
-    <t>init-ref</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>update-cmt</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>wait-cmt</t>
-  </si>
-  <si>
-    <t>post_wait-cmt</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>nowait</t>
-  </si>
-  <si>
-    <t>!dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/
-(100,100)
-</t>
-  </si>
-  <si>
-    <t>!pos</t>
-  </si>
-  <si>
-    <t>!uuid</t>
+    <t>50,100</t>
+  </si>
+  <si>
+    <t>312,100</t>
   </si>
   <si>
     <t>100001</t>
@@ -390,44 +341,15 @@
     <t>100002</t>
   </si>
   <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=testControl.ts_x000D_
-::tempfunc=templatefunc.txt_x000D_
-:enc=utf-8_x000D_
-:lang=typescript_x000D_
-::_x000D_
-_x000D_
-import { AppComponent } from '../app.component'; // add to template-source.txt_x000D_
-import { testControlSub } from './testControlSub';_x000D_
-_x000D_
-export class testControl extends testControlSub {_x000D_
-_x000D_
-    public start() {_x000D_
-        this.Goto(this.S_START);_x000D_
-    }_x000D_
-    public is_end() {_x000D_
-        return this.CheckState(this.S_END);_x000D_
-    }_x000D_
-_x000D_
-    $contents2$_x000D_
-}_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AppComponent.s_title='SYN-G-GEN !!!';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/12 15:15:53
-; * pssgEditor version : 0.8.857.901aa196200c00544980feefd1767fd85661329c
+    <t>; The setting was created automatically. 2018/10/06 14:52:02
+; * pssgEditor version : 0.11.8077.no hash because of debug
 psggfile=@@@
 @@@
 xlsfile=@@@
 testControl.xlsx
 @@@
 guid=@@@
-3eab0f5c-88e5-46ad-aecc-c141939d42d7
+e549b6b7-40d7-4d89-89fd-e7ae50b37c83
 @@@
 bitmap_width=5000
 bitmap_height=2000
@@ -436,7 +358,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Edited a state.
+Initilized
 @@@
 target_pathdir=@@@
 /
@@ -444,7 +366,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":511,"y":111}},{"Key":"S_0001","Value":{"x":262,"y":256}},{"Key":"S_HELLO","Value":{"x":262,"y":256}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":312,"y":100}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -453,6 +375,7 @@
 external_command=@@@
 @@@
 source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
 @@@
 label_show=0
 label_text=@@@
@@ -461,6 +384,7 @@
 option_delete_thisstring=1
 option_delete_br_string=1
 option_delete_bracket_string=1
+option_delete_s_state_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -470,6 +394,9 @@
 comment_block_height=45
 line_space=-1
 </t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -550,13 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -572,43 +499,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,80 +581,77 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1015,9 +939,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1027,108 +951,93 @@
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="26.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="17" customWidth="true"/>
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" s="2" customFormat="true" ht="144.75" customHeight="true">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1">
+    </row>
+    <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1">
+    </row>
+    <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1">
+    </row>
+    <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="11" customFormat="1">
+    </row>
+    <row r="6" s="11" customFormat="true">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="11" customFormat="1">
+    </row>
+    <row r="8" s="11" customFormat="true">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1">
+    <row r="9" s="11" customFormat="true">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>19</v>
@@ -1137,132 +1046,132 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1">
+    <row r="10" s="11" customFormat="true">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1">
+    <row r="12" s="11" customFormat="true">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1">
+    <row r="13" s="11" customFormat="true">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1">
+    <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1">
+    <row r="15" s="11" customFormat="true">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1">
+    <row r="16" s="11" customFormat="true">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" s="11" customFormat="1">
+    <row r="17" s="11" customFormat="true">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:6" s="11" customFormat="1">
+    <row r="18" s="11" customFormat="true">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="11" customFormat="1">
+    <row r="19" s="11" customFormat="true">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:6" s="13" customFormat="1">
+    <row r="20" s="13" customFormat="true">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" ht="18.75" customHeight="1">
+    <row r="21" s="15" customFormat="true" ht="18.75" customHeight="true">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:6" s="16" customFormat="1"/>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="56.25">
+    <row r="22" s="16" customFormat="true"/>
+    <row r="23" s="16" customFormat="true">
       <c r="B23" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" s="16" customFormat="true">
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="16" customFormat="1">
-      <c r="B24" s="16" t="s">
+    <row r="25" s="16" customFormat="true">
+      <c r="B25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1">
-      <c r="B25" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1272,99 +1181,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA55491E-0962-494D-B2FD-3F90D4511299}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>36</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614E2D7-D997-42BE-B9D3-D13B9FD52B63}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CE0B7E-2AB7-4E71-BB88-2EECB0FCB53C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69158C1A-F10C-4626-9EB4-75E1618B9C28}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB3A6D2-0115-47A7-8529-4608643AB5E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>34</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/playground/m00/doc/testControl.xlsx
+++ b/playground/m00/doc/testControl.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAB067E-6A92-48B9-9782-3B4D8FA427A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C7DEF7-5FAF-4351-8D4B-5466C6C09664}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="9" r:id="rId12"/>
-    <sheet name="setting.ini" sheetId="8" r:id="rId11"/>
-    <sheet name="template-statefunc" sheetId="7" r:id="rId10"/>
-    <sheet name="template-source" sheetId="6" r:id="rId9"/>
-    <sheet name="config" sheetId="5" r:id="rId8"/>
+    <sheet name="help" sheetId="19" r:id="rId22"/>
+    <sheet name="setting.ini" sheetId="18" r:id="rId21"/>
+    <sheet name="template-statefunc" sheetId="17" r:id="rId20"/>
+    <sheet name="template-source" sheetId="16" r:id="rId19"/>
+    <sheet name="config" sheetId="15" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -122,11 +122,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/*
+    <t>brcond</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>embed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vars</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;?state/^C_/
+eof&gt;&gt;&gt;
+&lt;&lt;&lt;?state/^E_/
+[[embed]]
+eof&gt;&gt;&gt;
+/*
     [[state]]
     [[state-cmt]]
 */
+[[members]]
 [[state]](bFirst: boolean) {
+    [[vars]]
     if (bFirst) {
         this.curstatename = '[[state]]';
         // this.curstatecmt  = '[[state-cmt]]';
@@ -280,7 +303,20 @@
 ; This section has macro defines for converting.
 ; commentline format  {%0} will be replaced to a comment.
 commentline=// {%0}
-@branch=this.{%0}(this.{%1});
+@branch=@@@
+&lt;&lt;&lt;?"{%0}"/^brifc{0,1}$/
+if ([[brcond:{%N}]]) { this.SetNext( {%1} ); }
+&gt;&gt;&gt;
+&lt;&lt;&lt;?"{%0}"/^brelseifc{0,1}$/
+else if ([[brcond:{%N}]]) { this.SetNext( {%1} ); }
+&gt;&gt;&gt;
+&lt;&lt;&lt;?"{%0}"/^brelse$/
+else { this.SetNext( {%1} ); }
+&gt;&gt;&gt;
+&lt;&lt;&lt;?"{%0}"/^br_/
+this.{%0}(this.{%1});
+&gt;&gt;&gt;
+@@@
 [jpn]
 title=Angular typescript  スタートキット  2018/10/6
 detail=@@@
@@ -341,15 +377,15 @@
     <t>100002</t>
   </si>
   <si>
-    <t>; The setting was created automatically. 2018/10/06 14:52:02
-; * pssgEditor version : 0.11.8077.no hash because of debug
+    <t>; The setting was created automatically. 2018/10/06 19:31:55
+; * pssgEditor version : 0.11.17145.61b017901b73c59595a63e6d7a111215db7a6ff3
 psggfile=@@@
 @@@
 xlsfile=@@@
 testControl.xlsx
 @@@
 guid=@@@
-e549b6b7-40d7-4d89-89fd-e7ae50b37c83
+64285a90-0afd-44e7-bfe9-677909b11a10
 @@@
 bitmap_width=5000
 bitmap_height=2000
@@ -397,6 +433,145 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>S_0001</t>
+  </si>
+  <si>
+    <t>15,140</t>
+  </si>
+  <si>
+    <t>463,188</t>
+  </si>
+  <si>
+    <t>(bitmap)</t>
+  </si>
+  <si>
+    <t>new state</t>
+  </si>
+  <si>
+    <t>alert('!');</t>
+  </si>
+  <si>
+    <t>/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>228,311</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/06 19:33:25
+; * pssgEditor version : 0.11.17145.61b017901b73c59595a63e6d7a111215db7a6ff3
+psggfile=@@@
+@@@
+xlsfile=@@@
+testControl.xlsx
+@@@
+guid=@@@
+64285a90-0afd-44e7-bfe9-677909b11a10
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":15,"y":140}},{"Key":"S_END","Value":{"x":463,"y":188}},{"Key":"S_0001","Value":{"x":228,"y":311}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/06 19:35:59
+; * pssgEditor version : 0.11.18455.0504cb5851eae36c7186747e010349c1be853a91
+psggfile=@@@
+@@@
+xlsfile=@@@
+testControl.xlsx
+@@@
+guid=@@@
+64285a90-0afd-44e7-bfe9-677909b11a10
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":15,"y":140}},{"Key":"S_END","Value":{"x":463,"y":188}},{"Key":"S_0001","Value":{"x":228,"y":311}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
   </si>
 </sst>
 </file>
@@ -939,13 +1114,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -963,6 +1138,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
@@ -978,6 +1156,9 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
@@ -989,6 +1170,9 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
@@ -1008,9 +1192,12 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
     </row>
     <row r="6" s="11" customFormat="true">
       <c r="A6" s="10"/>
@@ -1019,10 +1206,10 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" s="11" customFormat="true" ht="18.75" customHeight="true">
+    <row r="7" s="11" customFormat="true">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1030,9 +1217,7 @@
     </row>
     <row r="8" s="11" customFormat="true">
       <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -1040,7 +1225,7 @@
     <row r="9" s="11" customFormat="true">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1053,27 +1238,32 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" s="11" customFormat="true" ht="18.75" customHeight="true">
+    <row r="11" s="11" customFormat="true">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" s="11" customFormat="true">
+    <row r="12" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" s="11" customFormat="true">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -1081,7 +1271,7 @@
     <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1089,16 +1279,16 @@
     </row>
     <row r="15" s="11" customFormat="true">
       <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" s="11" customFormat="true">
+    <row r="16" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1106,7 +1296,7 @@
     <row r="17" s="11" customFormat="true">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1114,64 +1304,123 @@
     </row>
     <row r="18" s="11" customFormat="true">
       <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" s="11" customFormat="true">
       <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" s="13" customFormat="true">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" s="11" customFormat="true">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" s="11" customFormat="true">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" s="11" customFormat="true">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" s="11" customFormat="true">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" s="11" customFormat="true">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" s="13" customFormat="true">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" s="15" customFormat="true" ht="18.75" customHeight="true">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" s="13" customFormat="true">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" s="15" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" s="16" customFormat="true"/>
-    <row r="23" s="16" customFormat="true">
-      <c r="B23" s="16" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" s="16" customFormat="true"/>
+    <row r="29" s="16" customFormat="true">
+      <c r="B29" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" s="16" customFormat="true">
-      <c r="B24" s="16" t="s">
+      <c r="F29" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" s="16" customFormat="true">
+      <c r="B30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="true">
-      <c r="B25" s="16" t="s">
+      <c r="D30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" s="16" customFormat="true">
+      <c r="B31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>30</v>
+      <c r="D31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1181,70 +1430,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/playground/m00/doc/testControl.xlsx
+++ b/playground/m00/doc/testControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="19" r:id="rId22"/>
-    <sheet name="setting.ini" sheetId="18" r:id="rId21"/>
-    <sheet name="template-statefunc" sheetId="17" r:id="rId20"/>
-    <sheet name="template-source" sheetId="16" r:id="rId19"/>
-    <sheet name="config" sheetId="15" r:id="rId18"/>
+    <sheet name="help" sheetId="24" r:id="rId27"/>
+    <sheet name="setting.ini" sheetId="23" r:id="rId26"/>
+    <sheet name="template-statefunc" sheetId="22" r:id="rId25"/>
+    <sheet name="template-source" sheetId="21" r:id="rId24"/>
+    <sheet name="config" sheetId="20" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -545,6 +545,65 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":15,"y":140}},{"Key":"S_END","Value":{"x":463,"y":188}},{"Key":"S_0001","Value":{"x":228,"y":311}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>233,180</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/06 19:46:08
+; * pssgEditor version : 0.11.18455.0504cb5851eae36c7186747e010349c1be853a91
+psggfile=@@@
+testControl.psgg
+@@@
+xlsfile=@@@
+testControl.xlsx
+@@@
+guid=@@@
+64285a90-0afd-44e7-bfe9-677909b11a10
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":15,"y":140}},{"Key":"S_END","Value":{"x":463,"y":188}},{"Key":"S_0001","Value":{"x":233,"y":180}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1406,7 +1465,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" s="16" customFormat="true">
@@ -1430,21 +1489,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1458,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1472,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1486,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
